--- a/Running projects/GSK Dolmen Sky Tower Clifton Karachi/VO/001- Variation order for Fan Coil unit & WCPU.xlsx
+++ b/Running projects/GSK Dolmen Sky Tower Clifton Karachi/VO/001- Variation order for Fan Coil unit & WCPU.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629DD0C7-0533-40F5-836C-EB74348183C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B043FEB-22A5-4741-B088-109B201160C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>S. #</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Over Head profit 25%</t>
   </si>
   <si>
     <t>M/S My Interior</t>
@@ -83,6 +80,15 @@
   </si>
   <si>
     <t>PES/GSK/001/5/24</t>
+  </si>
+  <si>
+    <t>Over Head profit 15%</t>
+  </si>
+  <si>
+    <t>Approval 15% on material only</t>
+  </si>
+  <si>
+    <t>..\FCU &amp; WCPU Approval (whatsapp by BH on 24 May 24).jpeg</t>
   </si>
 </sst>
 </file>
@@ -93,7 +99,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +196,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,11 +291,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -403,9 +418,11 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -547,16 +564,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>406976</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>519544</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>452988</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>135808</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>71988</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>83855</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -579,7 +596,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6156612" y="1939637"/>
+          <a:off x="7247658" y="2502479"/>
           <a:ext cx="9181353" cy="5201376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -597,8 +614,8 @@
       <xdr:rowOff>181841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>108007</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>454371</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>143880</xdr:rowOff>
     </xdr:to>
@@ -926,7 +943,7 @@
   <dimension ref="A7:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:H29"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +958,7 @@
     <col min="9" max="9" width="14.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
     <col min="15" max="15" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -959,7 +976,7 @@
     <row r="18" spans="1:15" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:15" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="6"/>
@@ -971,11 +988,17 @@
     <row r="20" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="45" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
@@ -985,7 +1008,7 @@
     </row>
     <row r="23" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A23" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -1009,7 +1032,7 @@
     </row>
     <row r="25" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -1041,13 +1064,13 @@
         <v>7</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>10</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="8" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1055,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>11</v>
@@ -1067,19 +1090,18 @@
         <v>2917891</v>
       </c>
       <c r="F28" s="41">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G28" s="41">
-        <f>SUM(E28+F28)*25%</f>
-        <v>736972.75</v>
+        <f>E28*15%</f>
+        <v>437683.64999999997</v>
       </c>
       <c r="H28" s="43">
-        <f>SUM(E28+F28+G28)*7.5%</f>
-        <v>276364.78125</v>
+        <v>0</v>
       </c>
       <c r="I28" s="44">
         <f>H28+G28+F28+E28</f>
-        <v>3961228.53125</v>
+        <v>3355574.65</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="8" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1087,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>11</v>
@@ -1114,7 +1136,7 @@
       <c r="H30" s="38"/>
       <c r="I30" s="26">
         <f>SUM(I28:I29)</f>
-        <v>3961228.53125</v>
+        <v>3355574.65</v>
       </c>
       <c r="K30" s="22"/>
       <c r="L30" s="28"/>
@@ -1161,7 +1183,7 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1265,12 +1287,15 @@
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="N21" r:id="rId1" xr:uid="{A2CEC84A-729C-446D-AF23-68224BFB0C76}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId2"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="48" max="16383" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>